--- a/www.eia.gov/electricity/monthly/xls/table_a_2_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_2_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.2.A. Relative Standard Error (Percent) for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Electric Utilities by Census Division and State, October 2016</t>
+    <t>Electric Utilities by Census Division and State, November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>326</v>
+        <v>561</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="6">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>261</v>
+        <v>719</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1444,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,22 +1548,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,13 +1600,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1678,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="8">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,13 +1782,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="8">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,13 +1808,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -1834,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="8">
-        <v>122</v>
+        <v>532</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1857,16 +1857,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="6">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C29" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="8">
-        <v>240</v>
+        <v>683</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1912,14 +1912,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="8">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0.32</v>
-      </c>
       <c r="F31" s="8">
         <v>0</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,16 +1935,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="8">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="8">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="8">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
       <c r="E35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2042,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,17 +2091,17 @@
         <v>44</v>
       </c>
       <c r="B38" s="6">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38" s="6">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
       <c r="F38" s="6">
         <v>0</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="C40" s="8">
         <v>3</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="8">
-        <v>6</v>
+        <v>437</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="8">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="8">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="8">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D48" s="6">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="8">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="8">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F51" s="8">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2455,16 +2455,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C52" s="8">
-        <v>1659</v>
+        <v>1551</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="8">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D54" s="8">
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54" s="8">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F56" s="8">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2588,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="6">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D58" s="8">
         <v>0</v>
       </c>
       <c r="E58" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="8">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F59" s="8">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="8">
-        <v>960</v>
+        <v>324</v>
       </c>
       <c r="D60" s="8">
         <v>0</v>
       </c>
       <c r="E60" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="8">
         <v>0</v>
@@ -2692,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" s="6">
         <v>0</v>
       </c>
       <c r="E61" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D62" s="8">
         <v>0</v>
       </c>
       <c r="E62" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="8">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="8">
-        <v>203</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,19 +2767,19 @@
         <v>70</v>
       </c>
       <c r="B64" s="6">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C64" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="6">
         <v>0</v>
       </c>
       <c r="E64" s="6">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="F64" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G64" s="6">
         <v>0</v>
